--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:19:52+00:00</t>
+    <t>2023-02-27T11:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:03:37+00:00</t>
+    <t>2023-02-27T11:43:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:43:01+00:00</t>
+    <t>2023-02-28T11:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:30:20+00:00</t>
+    <t>2023-03-01T12:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:32:05+00:00</t>
+    <t>2023-03-01T13:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:09:29+00:00</t>
+    <t>2023-03-02T06:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:53+00:00</t>
+    <t>2023-03-02T07:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T07:03:01+00:00</t>
+    <t>2023-03-02T10:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:01:05+00:00</t>
+    <t>2023-03-02T11:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:57:08+00:00</t>
+    <t>2023-03-02T16:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:08:14+00:00</t>
+    <t>2023-03-03T12:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:35:01+00:00</t>
+    <t>2023-03-03T12:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:56:42+00:00</t>
+    <t>2023-03-03T14:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:58:49+00:00</t>
+    <t>2023-03-03T15:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:51:33+00:00</t>
+    <t>2023-03-04T08:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:23:50+00:00</t>
+    <t>2023-03-05T11:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:45:33+00:00</t>
+    <t>2023-03-06T07:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:25:44+00:00</t>
+    <t>2023-03-06T13:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:23:19+00:00</t>
+    <t>2023-03-06T13:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:58:50+00:00</t>
+    <t>2023-03-07T12:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:18:55+00:00</t>
+    <t>2023-03-07T17:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:18:24+00:00</t>
+    <t>2023-03-08T14:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:44:18+00:00</t>
+    <t>2023-03-08T15:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:59:39+00:00</t>
+    <t>2023-03-09T11:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/ValueSet-vs-cd4-percentage.xlsx
+++ b/branches/master/ValueSet-vs-cd4-percentage.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T11:23:43+00:00</t>
+    <t>2023-04-04T11:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
